--- a/Doc/ETI 2300 水质在线自动监测仪动态管控通讯地址.xlsx
+++ b/Doc/ETI 2300 水质在线自动监测仪动态管控通讯地址.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9420" activeTab="3"/>
+    <workbookView windowWidth="24000" windowHeight="9840" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="通讯文本" sheetId="4" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1242" uniqueCount="798">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1255" uniqueCount="810">
   <si>
     <t>水质在线自动监测仪动态管控通讯地址表-国家站</t>
   </si>
@@ -5243,178 +5243,808 @@
     <t>控制命令码</t>
   </si>
   <si>
-    <t>01 10 12 00 00 02 04 00 01 00 01</t>
+    <r>
+      <t xml:space="preserve">01 10 12 00 00 02 04 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>00 01</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>00 01</t>
+    </r>
+  </si>
+  <si>
+    <t>01 10 12 00 00 02 44 B0</t>
+  </si>
+  <si>
+    <t>启动量程为1的水样分析</t>
+  </si>
+  <si>
+    <r>
+      <t>00 01</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>表示流程为水样分析;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>00 01表示量程为1(可选量程有1/2/3)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">01 10 12 00 00 02 04 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>00 02</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>00 01</t>
+    </r>
+  </si>
+  <si>
+    <t>启动量程为1的标样核查</t>
+  </si>
+  <si>
+    <r>
+      <t>00 02</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>表示流程为标样核查;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>00 01表示量程为1(可选量程有1/2/3)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">01 10 12 00 00 02 04 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>00 03</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>00 01</t>
+    </r>
+  </si>
+  <si>
+    <t>启动量程为1的零点核查</t>
+  </si>
+  <si>
+    <r>
+      <t>00 03</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>表示流程为零点核查;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>00 01表示量程为1(可选量程有1/2/3)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">01 10 12 00 00 02 04 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>00 04</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>00 01</t>
+    </r>
+  </si>
+  <si>
+    <t>启动量程为1的跨度核查</t>
+  </si>
+  <si>
+    <r>
+      <t>00 04</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>表示流程为跨度核查;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>00 01表示量程为1(可选量程有1/2/3)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>01 10 12 00 00 02 04</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 00 05</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>00 01</t>
+    </r>
+  </si>
+  <si>
+    <t>启动量程为1的空白测试</t>
+  </si>
+  <si>
+    <r>
+      <t>00 05</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>表示流程为空白测试;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>00 01表示量程为1(可选量程有1/2/3)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">01 10 12 00 00 02 04 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>00 06</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>00 01</t>
+    </r>
+  </si>
+  <si>
+    <t>启动量程为1的平行样测试</t>
+  </si>
+  <si>
+    <r>
+      <t>00 06</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>表示流程为平行样测试;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>00 01表示量程为1(可选量程有1/2/3)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">01 10 12 00 00 02 04 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>00 07</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>00 01</t>
+    </r>
+  </si>
+  <si>
+    <t>启动量程为1的加标回收测试</t>
+  </si>
+  <si>
+    <r>
+      <t>00 07</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>表示流程为加标回收;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>00 01表示量程为1(可选量程有1/2/3)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">01 10 12 00 00 02 04 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>00 08</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 00 01</t>
+    </r>
+  </si>
+  <si>
+    <t>启动量程为1的空白校准</t>
+  </si>
+  <si>
+    <r>
+      <t>00 08</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>表示流程为空白校准;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>00 01表示量程为1(可选量程有1/2/3)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>01 10 12 00 00 02 04</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 00 09</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>00 01</t>
+    </r>
+  </si>
+  <si>
+    <t>启动量程为1的标样校准测试</t>
+  </si>
+  <si>
+    <r>
+      <t>00 09</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>表示流程为标样校准;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>00 01表示量程为1(可选量程有1/2/3)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">01 10 12 00 00 02 04 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>00 0A</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 00 01</t>
+    </r>
+  </si>
+  <si>
+    <t>启动量程为1的排空清洗</t>
+  </si>
+  <si>
+    <r>
+      <t>00 0A</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>表示流程为排空清洗;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>00 01表示量程为1(可选量程有1/2/3)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">01 10 12 00 00 02 04 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>00 0B</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 00 01</t>
+    </r>
+  </si>
+  <si>
+    <t>停止测试</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">01 10 12 00 00 02 04 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>00 0C</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 00 01</t>
+    </r>
+  </si>
+  <si>
+    <t>仪器重启</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">01 10 12 00 00 04 08 00 0d </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>18 05 29 16 05 29</t>
+    </r>
+  </si>
+  <si>
+    <t>01 10 12 00 00 04 C4 B2</t>
+  </si>
+  <si>
+    <t>时间校准</t>
+  </si>
+  <si>
+    <t>01 10 12 00 00 02 04 00 0e 00 02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">01 10 12 00 00 02 44 B0 </t>
+  </si>
+  <si>
+    <t>设置运行模式（会随之变化）</t>
+  </si>
+  <si>
+    <t>01 10 12 00 00 02 04 00 0f 00 10</t>
+  </si>
+  <si>
+    <t>01 10 12 00 00 02 04 00 10 00 20</t>
+  </si>
+  <si>
+    <t>零点核查频次设置</t>
+  </si>
+  <si>
+    <t>01 10 12 00 00 02 04 00 11 00 30</t>
+  </si>
+  <si>
+    <t>跨度核查频次设置</t>
+  </si>
+  <si>
+    <t>01 10 12 00 00 02 04 00 12  00 40</t>
+  </si>
+  <si>
+    <t>标样核查频次设置</t>
+  </si>
+  <si>
+    <t>01 10 12 00 00 02 04 00 13 00 01</t>
   </si>
   <si>
     <t>01 10 12 00 00 01 04 B1</t>
   </si>
   <si>
-    <t>启动量程为1的水样分析</t>
-  </si>
-  <si>
-    <t>01 10 12 00 00 02 04 00 02 00 01</t>
-  </si>
-  <si>
-    <t>启动量程为1的标样核查</t>
-  </si>
-  <si>
-    <t>01 10 12 00 00 02 04 00 03 00 01</t>
-  </si>
-  <si>
-    <t>启动量程为1的零点核查</t>
-  </si>
-  <si>
-    <t>01 10 12 00 00 02 04 00 04 00 01</t>
-  </si>
-  <si>
-    <t>启动量程为1的跨度核查</t>
-  </si>
-  <si>
-    <t>01 10 12 00 00 02 04 00 05 00 01</t>
-  </si>
-  <si>
-    <t>启动量程为1的空白测试</t>
-  </si>
-  <si>
-    <t>01 10 12 00 00 02 04 00 06 00 01</t>
-  </si>
-  <si>
-    <t>启动量程为1的平行样测试</t>
-  </si>
-  <si>
-    <t>01 10 12 00 00 02 04 00 07 00 01</t>
-  </si>
-  <si>
-    <t>启动量程为1的加标回收测试</t>
-  </si>
-  <si>
-    <t>01 10 12 00 00 02 04 00 08 00 01</t>
-  </si>
-  <si>
-    <t>启动量程为1的空白校准</t>
-  </si>
-  <si>
-    <t>01 10 12 00 00 02 04 00 09 00 01</t>
-  </si>
-  <si>
-    <t>启动量程为1的标样校准测试</t>
-  </si>
-  <si>
-    <t>01 10 12 00 00 02 04 00 0A 00 01</t>
-  </si>
-  <si>
-    <t>启动量程为1的排空清洗</t>
-  </si>
-  <si>
-    <t>01 10 12 00 00 02 04 00 0B 00 01</t>
-  </si>
-  <si>
-    <t>停止测试</t>
-  </si>
-  <si>
-    <t>01 10 12 00 00 02 04 00 0C 00 01</t>
-  </si>
-  <si>
-    <t>仪器重启</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">01 10 12 00 00 04 08 00 0d </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>18 05 29 16 05 29</t>
-    </r>
-  </si>
-  <si>
-    <t>01 10 12 00 00 04 C4 B2</t>
-  </si>
-  <si>
-    <t>时间校准</t>
-  </si>
-  <si>
-    <t>01 10 12 00 00 02 04 00 0e 00 02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">01 10 12 00 00 02 44 B0 </t>
-  </si>
-  <si>
-    <t>设置运行模式（会随之变化）</t>
-  </si>
-  <si>
-    <t>01 10 12 00 00 02 04 00 0f 00 10</t>
-  </si>
-  <si>
-    <t>01 10 12 00 00 02 04 00 10 00 20</t>
-  </si>
-  <si>
-    <t>l零点核查间隔设置</t>
-  </si>
-  <si>
-    <t>01 10 12 00 00 02 04 00 11 00 30</t>
-  </si>
-  <si>
-    <t>跨度核查间隔设置</t>
-  </si>
-  <si>
-    <t>01 10 12 00 00 02 04 00 12  00 40</t>
-  </si>
-  <si>
-    <t>标样间隔设置</t>
-  </si>
-  <si>
-    <t>01 10 12 00 00 02 04 00 13 00 01</t>
-  </si>
-  <si>
-    <t>自动标定</t>
+    <t>启动量程为1的校准流程</t>
+  </si>
+  <si>
+    <r>
+      <t>00 01</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>表示流程为排空清洗;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>00 01表示量程为1(可选量程有1/2/3)</t>
+    </r>
   </si>
   <si>
     <t>01 10 12 00 00 02 04 00 14 00 01</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>线性核查(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>错误</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>）</t>
-    </r>
+    <t>启动量程为1的线性核查</t>
   </si>
   <si>
     <t>01 10 12 00 00 02 04 00 15 00 01</t>
   </si>
   <si>
-    <t>实际水样比对</t>
+    <t>启动量程为1的实际水样比对</t>
   </si>
 </sst>
 </file>
@@ -5422,12 +6052,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="38">
+  <fonts count="39">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -5462,6 +6092,12 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
@@ -5508,36 +6144,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -5552,8 +6159,15 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -5584,7 +6198,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -5599,22 +6220,16 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -5637,24 +6252,39 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF00B050"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -5671,6 +6301,12 @@
     <font>
       <sz val="11"/>
       <color theme="9" tint="-0.5"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B0F0"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
@@ -5709,7 +6345,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5721,61 +6357,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5793,7 +6375,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5805,19 +6411,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5829,19 +6489,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5853,7 +6513,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5865,31 +6525,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5982,21 +6618,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -6014,10 +6635,8 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -6038,10 +6657,27 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -6056,6 +6692,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -6064,21 +6715,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -6087,10 +6723,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="24" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -6099,133 +6735,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="15" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="14" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -6359,8 +6995,8 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -6374,13 +7010,13 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -6389,10 +7025,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -6407,7 +7043,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -6470,10 +7106,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -6530,10 +7166,10 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -6702,8 +7338,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="635" y="1682115"/>
-          <a:ext cx="1540510" cy="2247265"/>
+          <a:off x="635" y="1638300"/>
+          <a:ext cx="1609090" cy="2228215"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6740,8 +7376,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2477770" y="1489710"/>
-          <a:ext cx="1161415" cy="1843405"/>
+          <a:off x="2715260" y="1447800"/>
+          <a:ext cx="1161415" cy="1828165"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6778,8 +7414,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3686810" y="1383030"/>
-          <a:ext cx="1035685" cy="1757680"/>
+          <a:off x="4097020" y="1343025"/>
+          <a:ext cx="1104265" cy="1742440"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7086,26 +7722,26 @@
       <selection activeCell="C53" sqref="C53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="6.62962962962963" style="61" customWidth="1"/>
+    <col min="1" max="1" width="6.63333333333333" style="61" customWidth="1"/>
     <col min="2" max="2" width="9.25" style="51" customWidth="1"/>
-    <col min="3" max="3" width="23.6296296296296" style="52" customWidth="1"/>
-    <col min="4" max="4" width="12.3796296296296" style="51" customWidth="1"/>
-    <col min="5" max="5" width="10.8796296296296" style="51" customWidth="1"/>
+    <col min="3" max="3" width="23.6333333333333" style="52" customWidth="1"/>
+    <col min="4" max="4" width="12.3833333333333" style="51" customWidth="1"/>
+    <col min="5" max="5" width="10.8833333333333" style="51" customWidth="1"/>
     <col min="6" max="6" width="9.25" style="51" customWidth="1"/>
-    <col min="7" max="7" width="24.3796296296296" style="51" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="32.6296296296296" style="51" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="34.6296296296296" style="61" customWidth="1"/>
-    <col min="10" max="10" width="32.1296296296296" style="61" customWidth="1"/>
-    <col min="11" max="11" width="56.6296296296296" style="79" customWidth="1"/>
-    <col min="12" max="12" width="25.8796296296296" style="61" customWidth="1"/>
-    <col min="13" max="13" width="30.8796296296296" style="61" customWidth="1"/>
-    <col min="14" max="14" width="14.6296296296296" style="61" customWidth="1"/>
+    <col min="7" max="7" width="24.3833333333333" style="51" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="32.6333333333333" style="51" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="34.6333333333333" style="61" customWidth="1"/>
+    <col min="10" max="10" width="32.1333333333333" style="61" customWidth="1"/>
+    <col min="11" max="11" width="56.6333333333333" style="79" customWidth="1"/>
+    <col min="12" max="12" width="25.8833333333333" style="61" customWidth="1"/>
+    <col min="13" max="13" width="30.8833333333333" style="61" customWidth="1"/>
+    <col min="14" max="14" width="14.6333333333333" style="61" customWidth="1"/>
     <col min="15" max="16384" width="9" style="61"/>
   </cols>
   <sheetData>
-    <row r="1" ht="24.6" spans="1:9">
+    <row r="1" ht="24.75" spans="1:9">
       <c r="A1" s="80" t="s">
         <v>0</v>
       </c>
@@ -7118,7 +7754,7 @@
       <c r="H1" s="80"/>
       <c r="I1" s="80"/>
     </row>
-    <row r="3" ht="17.4" spans="1:4">
+    <row r="3" ht="17.25" spans="1:4">
       <c r="A3" s="81" t="s">
         <v>1</v>
       </c>
@@ -7159,7 +7795,7 @@
       </c>
       <c r="K4" s="111"/>
     </row>
-    <row r="5" s="51" customFormat="1" ht="31.2" spans="1:13">
+    <row r="5" s="51" customFormat="1" ht="33" spans="1:13">
       <c r="A5" s="14">
         <v>1</v>
       </c>
@@ -7187,7 +7823,7 @@
       <c r="K5" s="111"/>
       <c r="M5" s="62"/>
     </row>
-    <row r="6" s="51" customFormat="1" ht="62.4" spans="1:11">
+    <row r="6" s="51" customFormat="1" ht="66" spans="1:11">
       <c r="A6" s="14">
         <v>2</v>
       </c>
@@ -7221,7 +7857,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" ht="78" spans="1:13">
+    <row r="7" ht="66" spans="1:13">
       <c r="A7" s="14">
         <v>3</v>
       </c>
@@ -7261,7 +7897,7 @@
       </c>
       <c r="M7" s="113"/>
     </row>
-    <row r="8" ht="62.4" spans="1:13">
+    <row r="8" ht="66" spans="1:13">
       <c r="A8" s="14">
         <v>4</v>
       </c>
@@ -7301,7 +7937,7 @@
       </c>
       <c r="M8" s="113"/>
     </row>
-    <row r="9" ht="46.8" spans="1:13">
+    <row r="9" ht="49.5" spans="1:13">
       <c r="A9" s="14">
         <v>5</v>
       </c>
@@ -7339,7 +7975,7 @@
       </c>
       <c r="M9" s="113"/>
     </row>
-    <row r="10" ht="62.4" spans="1:13">
+    <row r="10" ht="66" spans="1:13">
       <c r="A10" s="14">
         <v>6</v>
       </c>
@@ -7377,7 +8013,7 @@
       </c>
       <c r="M10" s="113"/>
     </row>
-    <row r="11" ht="46.8" spans="1:13">
+    <row r="11" ht="49.5" spans="1:13">
       <c r="A11" s="14">
         <v>7</v>
       </c>
@@ -7412,7 +8048,7 @@
       </c>
       <c r="M11" s="113"/>
     </row>
-    <row r="12" ht="62.4" spans="1:13">
+    <row r="12" ht="49.5" spans="1:13">
       <c r="A12" s="14">
         <v>8</v>
       </c>
@@ -7443,7 +8079,7 @@
       </c>
       <c r="M12" s="113"/>
     </row>
-    <row r="13" ht="62.4" spans="1:13">
+    <row r="13" ht="66" spans="1:13">
       <c r="A13" s="14">
         <v>9</v>
       </c>
@@ -7474,7 +8110,7 @@
       </c>
       <c r="M13" s="113"/>
     </row>
-    <row r="14" ht="109.2" spans="1:13">
+    <row r="14" ht="99" spans="1:13">
       <c r="A14" s="14">
         <v>10</v>
       </c>
@@ -7512,7 +8148,7 @@
       </c>
       <c r="M14" s="113"/>
     </row>
-    <row r="15" ht="62.4" spans="1:13">
+    <row r="15" ht="66" spans="1:13">
       <c r="A15" s="14">
         <v>11</v>
       </c>
@@ -7547,7 +8183,7 @@
       </c>
       <c r="M15" s="113"/>
     </row>
-    <row r="16" ht="46.8" spans="1:13">
+    <row r="16" ht="49.5" spans="1:13">
       <c r="A16" s="14">
         <v>12</v>
       </c>
@@ -7585,7 +8221,7 @@
       </c>
       <c r="M16" s="113"/>
     </row>
-    <row r="17" ht="46.8" spans="1:13">
+    <row r="17" ht="49.5" spans="1:13">
       <c r="A17" s="14">
         <v>13</v>
       </c>
@@ -7623,7 +8259,7 @@
       </c>
       <c r="M17" s="113"/>
     </row>
-    <row r="18" ht="31.2" spans="1:13">
+    <row r="18" ht="33" spans="1:13">
       <c r="A18" s="14">
         <v>14</v>
       </c>
@@ -7657,7 +8293,7 @@
       </c>
       <c r="M18" s="113"/>
     </row>
-    <row r="19" ht="31.2" spans="1:13">
+    <row r="19" ht="33" spans="1:13">
       <c r="A19" s="14">
         <v>15</v>
       </c>
@@ -7691,7 +8327,7 @@
       </c>
       <c r="M19" s="113"/>
     </row>
-    <row r="20" ht="31.2" spans="1:13">
+    <row r="20" ht="33" spans="1:13">
       <c r="A20" s="14">
         <v>16</v>
       </c>
@@ -7725,7 +8361,7 @@
       </c>
       <c r="M20" s="113"/>
     </row>
-    <row r="21" ht="62.4" spans="1:13">
+    <row r="21" ht="66" spans="1:13">
       <c r="A21" s="14">
         <v>17</v>
       </c>
@@ -7765,7 +8401,7 @@
       </c>
       <c r="M21" s="113"/>
     </row>
-    <row r="22" ht="62.4" spans="1:13">
+    <row r="22" ht="49.5" spans="1:13">
       <c r="A22" s="14">
         <v>18</v>
       </c>
@@ -8425,7 +9061,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="41" ht="62.4" spans="1:12">
+    <row r="41" ht="66" spans="1:12">
       <c r="A41" s="14">
         <v>37</v>
       </c>
@@ -8495,7 +9131,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="43" ht="62.4" spans="1:12">
+    <row r="43" ht="49.5" spans="1:12">
       <c r="A43" s="14"/>
       <c r="B43" s="29">
         <v>40075</v>
@@ -8527,7 +9163,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="44" ht="62.4" spans="1:12">
+    <row r="44" ht="66" spans="1:12">
       <c r="A44" s="14"/>
       <c r="B44" s="23">
         <v>40077</v>
@@ -8559,7 +9195,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="45" ht="31.2" spans="1:12">
+    <row r="45" ht="33" spans="1:12">
       <c r="A45" s="14"/>
       <c r="B45" s="23">
         <v>40080</v>
@@ -8656,7 +9292,7 @@
       <c r="H51" s="98"/>
       <c r="I51" s="120"/>
     </row>
-    <row r="52" ht="19.2" spans="1:9">
+    <row r="52" ht="20.25" spans="1:9">
       <c r="A52" s="81" t="s">
         <v>213</v>
       </c>
@@ -8669,7 +9305,7 @@
       <c r="H52" s="100"/>
       <c r="I52" s="100"/>
     </row>
-    <row r="53" s="51" customFormat="1" ht="31.2" spans="1:11">
+    <row r="53" s="51" customFormat="1" ht="33" spans="1:11">
       <c r="A53" s="14" t="s">
         <v>3</v>
       </c>
@@ -8780,7 +9416,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="58" s="51" customFormat="1" ht="93.6" spans="1:12">
+    <row r="58" s="51" customFormat="1" ht="99" spans="1:12">
       <c r="A58" s="14"/>
       <c r="B58" s="22">
         <v>40062</v>
@@ -8812,7 +9448,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="59" s="51" customFormat="1" ht="31.2" spans="1:11">
+    <row r="59" s="51" customFormat="1" spans="1:11">
       <c r="A59" s="14"/>
       <c r="B59" s="22">
         <v>40063</v>
@@ -8843,7 +9479,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="60" s="51" customFormat="1" ht="31.2" spans="1:11">
+    <row r="60" s="51" customFormat="1" ht="33" spans="1:11">
       <c r="A60" s="14"/>
       <c r="B60" s="22">
         <v>40064</v>
@@ -8874,7 +9510,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="61" s="51" customFormat="1" ht="31.2" spans="1:11">
+    <row r="61" s="51" customFormat="1" ht="33" spans="1:11">
       <c r="A61" s="14"/>
       <c r="B61" s="22">
         <v>40065</v>
@@ -8937,7 +9573,7 @@
       </c>
       <c r="M62" s="61"/>
     </row>
-    <row r="63" s="51" customFormat="1" ht="109.2" spans="1:13">
+    <row r="63" s="51" customFormat="1" ht="115.5" spans="1:13">
       <c r="A63" s="14"/>
       <c r="B63" s="22">
         <v>40067</v>
@@ -8965,7 +9601,7 @@
       </c>
       <c r="M63" s="61"/>
     </row>
-    <row r="64" s="51" customFormat="1" ht="31.2" spans="1:13">
+    <row r="64" s="51" customFormat="1" ht="33" spans="1:13">
       <c r="A64" s="14"/>
       <c r="B64" s="29">
         <v>40073</v>
@@ -9518,15 +10154,15 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="2" max="2" width="22.1296296296296" customWidth="1"/>
-    <col min="3" max="3" width="22.6296296296296" customWidth="1"/>
-    <col min="5" max="5" width="14.6296296296296" customWidth="1"/>
-    <col min="6" max="6" width="22.6296296296296" customWidth="1"/>
+    <col min="2" max="2" width="22.1333333333333" customWidth="1"/>
+    <col min="3" max="3" width="22.6333333333333" customWidth="1"/>
+    <col min="5" max="5" width="14.6333333333333" customWidth="1"/>
+    <col min="6" max="6" width="22.6333333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" ht="17.4" spans="1:1">
+    <row r="2" ht="17.25" spans="1:1">
       <c r="A2" s="50" t="s">
         <v>245</v>
       </c>
@@ -9539,7 +10175,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="5" ht="17.4" spans="1:4">
+    <row r="5" ht="17.25" spans="1:4">
       <c r="A5" s="50" t="s">
         <v>248</v>
       </c>
@@ -9547,79 +10183,79 @@
       <c r="C5" s="52"/>
       <c r="D5" s="51"/>
     </row>
-    <row r="6" ht="17.4" spans="1:4">
+    <row r="6" ht="17.25" spans="1:4">
       <c r="A6" s="50"/>
       <c r="B6" s="51"/>
       <c r="C6" s="52"/>
       <c r="D6" s="51"/>
     </row>
-    <row r="7" ht="17.4" spans="1:4">
+    <row r="7" ht="17.25" spans="1:4">
       <c r="A7" s="50"/>
       <c r="B7" s="51"/>
       <c r="C7" s="52"/>
       <c r="D7" s="51"/>
     </row>
-    <row r="8" ht="17.4" spans="1:4">
+    <row r="8" ht="17.25" spans="1:4">
       <c r="A8" s="50"/>
       <c r="B8" s="51"/>
       <c r="C8" s="52"/>
       <c r="D8" s="51"/>
     </row>
-    <row r="9" ht="17.4" spans="1:4">
+    <row r="9" ht="17.25" spans="1:4">
       <c r="A9" s="50"/>
       <c r="B9" s="51"/>
       <c r="C9" s="52"/>
       <c r="D9" s="51"/>
     </row>
-    <row r="10" ht="17.4" spans="1:4">
+    <row r="10" ht="17.25" spans="1:4">
       <c r="A10" s="50"/>
       <c r="B10" s="51"/>
       <c r="C10" s="52"/>
       <c r="D10" s="51"/>
     </row>
-    <row r="11" ht="17.4" spans="1:4">
+    <row r="11" ht="17.25" spans="1:4">
       <c r="A11" s="50"/>
       <c r="B11" s="51"/>
       <c r="C11" s="52"/>
       <c r="D11" s="51"/>
     </row>
-    <row r="12" ht="17.4" spans="1:4">
+    <row r="12" ht="17.25" spans="1:4">
       <c r="A12" s="50"/>
       <c r="B12" s="51"/>
       <c r="C12" s="52"/>
       <c r="D12" s="51"/>
     </row>
-    <row r="13" ht="17.4" spans="1:4">
+    <row r="13" ht="17.25" spans="1:4">
       <c r="A13" s="50"/>
       <c r="B13" s="51"/>
       <c r="C13" s="52"/>
       <c r="D13" s="51"/>
     </row>
-    <row r="14" ht="17.4" spans="1:4">
+    <row r="14" ht="17.25" spans="1:4">
       <c r="A14" s="50"/>
       <c r="B14" s="51"/>
       <c r="C14" s="52"/>
       <c r="D14" s="51"/>
     </row>
-    <row r="15" ht="17.4" spans="1:4">
+    <row r="15" ht="17.25" spans="1:4">
       <c r="A15" s="50"/>
       <c r="B15" s="51"/>
       <c r="C15" s="52"/>
       <c r="D15" s="51"/>
     </row>
-    <row r="16" ht="17.4" spans="1:4">
+    <row r="16" ht="17.25" spans="1:4">
       <c r="A16" s="50"/>
       <c r="B16" s="51"/>
       <c r="C16" s="52"/>
       <c r="D16" s="51"/>
     </row>
-    <row r="17" ht="17.4" spans="1:4">
+    <row r="17" ht="17.25" spans="1:4">
       <c r="A17" s="50"/>
       <c r="B17" s="51"/>
       <c r="C17" s="52"/>
       <c r="D17" s="51"/>
     </row>
-    <row r="18" ht="17.4" spans="1:4">
+    <row r="18" ht="17.25" spans="1:4">
       <c r="A18" s="53" t="s">
         <v>249</v>
       </c>
@@ -9653,13 +10289,13 @@
       <c r="E21" s="54"/>
       <c r="F21" s="54"/>
     </row>
-    <row r="22" ht="17.4" spans="1:4">
+    <row r="22" ht="17.25" spans="1:4">
       <c r="A22" s="50"/>
       <c r="B22" s="51"/>
       <c r="C22" s="52"/>
       <c r="D22" s="51"/>
     </row>
-    <row r="23" ht="17.4" spans="1:4">
+    <row r="23" ht="17.25" spans="1:4">
       <c r="A23" s="50" t="s">
         <v>251</v>
       </c>
@@ -9667,7 +10303,7 @@
       <c r="C23" s="52"/>
       <c r="D23" s="51"/>
     </row>
-    <row r="24" ht="15.6" spans="1:6">
+    <row r="24" ht="16.5" spans="1:6">
       <c r="A24" s="14" t="s">
         <v>3</v>
       </c>
@@ -9687,7 +10323,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="25" ht="15.6" spans="1:6">
+    <row r="25" ht="16.5" spans="1:6">
       <c r="A25" s="14">
         <v>1</v>
       </c>
@@ -9707,7 +10343,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="26" ht="15.6" spans="1:6">
+    <row r="26" ht="16.5" spans="1:6">
       <c r="A26" s="14">
         <v>2</v>
       </c>
@@ -9727,7 +10363,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="27" ht="15.6" spans="1:6">
+    <row r="27" ht="16.5" spans="1:6">
       <c r="A27" s="14">
         <v>3</v>
       </c>
@@ -9747,7 +10383,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="28" ht="15.6" spans="1:6">
+    <row r="28" ht="16.5" spans="1:6">
       <c r="A28" s="14">
         <v>4</v>
       </c>
@@ -9767,7 +10403,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="29" ht="15.6" spans="1:6">
+    <row r="29" ht="16.5" spans="1:6">
       <c r="A29" s="14">
         <v>5</v>
       </c>
@@ -9787,7 +10423,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="30" ht="15.6" spans="1:6">
+    <row r="30" ht="16.5" spans="1:6">
       <c r="A30" s="14">
         <v>6</v>
       </c>
@@ -9807,7 +10443,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="31" ht="15.6" spans="1:6">
+    <row r="31" ht="16.5" spans="1:6">
       <c r="A31" s="14">
         <v>7</v>
       </c>
@@ -9827,7 +10463,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="32" ht="15.6" spans="1:6">
+    <row r="32" ht="16.5" spans="1:6">
       <c r="A32" s="14">
         <v>8</v>
       </c>
@@ -9847,7 +10483,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="33" ht="15.6" spans="1:6">
+    <row r="33" ht="16.5" spans="1:6">
       <c r="A33" s="14">
         <v>9</v>
       </c>
@@ -9867,7 +10503,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="34" ht="15.6" spans="1:6">
+    <row r="34" ht="16.5" spans="1:6">
       <c r="A34" s="14">
         <v>10</v>
       </c>
@@ -9887,7 +10523,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="35" ht="15.6" spans="1:6">
+    <row r="35" ht="16.5" spans="1:6">
       <c r="A35" s="56"/>
       <c r="B35" s="57"/>
       <c r="C35" s="58"/>
@@ -9895,7 +10531,7 @@
       <c r="E35" s="57"/>
       <c r="F35" s="58"/>
     </row>
-    <row r="36" ht="15.6" spans="1:6">
+    <row r="36" ht="16.5" spans="1:6">
       <c r="A36" s="56"/>
       <c r="B36" s="57"/>
       <c r="C36" s="58"/>
@@ -9903,7 +10539,7 @@
       <c r="E36" s="57"/>
       <c r="F36" s="58"/>
     </row>
-    <row r="37" ht="17.4" spans="1:4">
+    <row r="37" ht="17.25" spans="1:4">
       <c r="A37" s="59" t="s">
         <v>291</v>
       </c>
@@ -9911,7 +10547,7 @@
       <c r="C37" s="52"/>
       <c r="D37" s="51"/>
     </row>
-    <row r="38" ht="15.6" spans="1:14">
+    <row r="38" ht="16.5" spans="1:14">
       <c r="A38" s="60" t="s">
         <v>292</v>
       </c>
@@ -9926,7 +10562,7 @@
       <c r="M38" s="60"/>
       <c r="N38" s="60"/>
     </row>
-    <row r="39" ht="15.6" spans="1:14">
+    <row r="39" ht="16.5" spans="1:14">
       <c r="A39" s="60"/>
       <c r="B39" s="60"/>
       <c r="C39" s="60"/>
@@ -9939,7 +10575,7 @@
       <c r="M39" s="60"/>
       <c r="N39" s="60"/>
     </row>
-    <row r="40" ht="15.6" spans="1:14">
+    <row r="40" ht="16.5" spans="1:14">
       <c r="A40" s="60"/>
       <c r="B40" s="60"/>
       <c r="C40" s="60"/>
@@ -9952,7 +10588,7 @@
       <c r="M40" s="60"/>
       <c r="N40" s="60"/>
     </row>
-    <row r="41" ht="15.6" spans="1:14">
+    <row r="41" ht="16.5" spans="1:14">
       <c r="A41" s="60"/>
       <c r="B41" s="60"/>
       <c r="C41" s="60"/>
@@ -9965,7 +10601,7 @@
       <c r="M41" s="60"/>
       <c r="N41" s="60"/>
     </row>
-    <row r="42" ht="15.6" spans="1:14">
+    <row r="42" ht="16.5" spans="1:14">
       <c r="A42" s="60"/>
       <c r="B42" s="60"/>
       <c r="C42" s="60"/>
@@ -9978,7 +10614,7 @@
       <c r="M42" s="60"/>
       <c r="N42" s="60"/>
     </row>
-    <row r="43" ht="15.6" spans="1:14">
+    <row r="43" ht="16.5" spans="1:14">
       <c r="A43" s="60"/>
       <c r="B43" s="60"/>
       <c r="C43" s="60"/>
@@ -9991,7 +10627,7 @@
       <c r="M43" s="60"/>
       <c r="N43" s="60"/>
     </row>
-    <row r="44" ht="15.6" spans="1:14">
+    <row r="44" ht="16.5" spans="1:14">
       <c r="A44" s="60"/>
       <c r="B44" s="60"/>
       <c r="C44" s="60"/>
@@ -10004,7 +10640,7 @@
       <c r="M44" s="60"/>
       <c r="N44" s="60"/>
     </row>
-    <row r="45" ht="15.6" spans="1:14">
+    <row r="45" ht="16.5" spans="1:14">
       <c r="A45" s="60"/>
       <c r="B45" s="60"/>
       <c r="C45" s="60"/>
@@ -10017,7 +10653,7 @@
       <c r="M45" s="60"/>
       <c r="N45" s="60"/>
     </row>
-    <row r="46" ht="15.6" spans="1:14">
+    <row r="46" ht="16.5" spans="1:14">
       <c r="A46" s="60"/>
       <c r="B46" s="60"/>
       <c r="C46" s="60"/>
@@ -10030,7 +10666,7 @@
       <c r="M46" s="60"/>
       <c r="N46" s="60"/>
     </row>
-    <row r="47" ht="15.6" spans="1:14">
+    <row r="47" ht="16.5" spans="1:14">
       <c r="A47" s="60"/>
       <c r="B47" s="60"/>
       <c r="C47" s="60"/>
@@ -10043,10 +10679,10 @@
       <c r="M47" s="60"/>
       <c r="N47" s="60"/>
     </row>
-    <row r="48" ht="15.6" spans="4:4">
+    <row r="48" ht="16.5" spans="4:4">
       <c r="D48" s="61"/>
     </row>
-    <row r="49" ht="17.4" spans="1:8">
+    <row r="49" ht="17.25" spans="1:8">
       <c r="A49" s="50" t="s">
         <v>293</v>
       </c>
@@ -10055,7 +10691,7 @@
       <c r="D49" s="51"/>
       <c r="H49" s="7"/>
     </row>
-    <row r="50" ht="15.6" spans="1:7">
+    <row r="50" ht="16.5" spans="1:7">
       <c r="A50" s="19" t="s">
         <v>3</v>
       </c>
@@ -10076,7 +10712,7 @@
       </c>
       <c r="G50" s="64"/>
     </row>
-    <row r="51" ht="15.6" spans="1:8">
+    <row r="51" ht="16.5" spans="1:8">
       <c r="A51" s="19">
         <v>1</v>
       </c>
@@ -10098,7 +10734,7 @@
       <c r="G51" s="64"/>
       <c r="H51" s="2"/>
     </row>
-    <row r="52" ht="15.6" spans="1:7">
+    <row r="52" ht="16.5" spans="1:7">
       <c r="A52" s="19">
         <v>2</v>
       </c>
@@ -10119,7 +10755,7 @@
       </c>
       <c r="G52" s="64"/>
     </row>
-    <row r="53" ht="15.6" spans="1:7">
+    <row r="53" ht="16.5" spans="1:7">
       <c r="A53" s="19">
         <v>3</v>
       </c>
@@ -10140,7 +10776,7 @@
       </c>
       <c r="G53" s="64"/>
     </row>
-    <row r="54" ht="15.6" spans="1:7">
+    <row r="54" ht="16.5" spans="1:7">
       <c r="A54" s="19">
         <v>4</v>
       </c>
@@ -10161,7 +10797,7 @@
       </c>
       <c r="G54" s="64"/>
     </row>
-    <row r="55" ht="15.6" spans="1:7">
+    <row r="55" ht="16.5" spans="1:7">
       <c r="A55" s="19">
         <v>5</v>
       </c>
@@ -10182,7 +10818,7 @@
       </c>
       <c r="G55" s="64"/>
     </row>
-    <row r="56" ht="15.6" spans="1:8">
+    <row r="56" ht="16.5" spans="1:8">
       <c r="A56" s="19">
         <v>6</v>
       </c>
@@ -10204,7 +10840,7 @@
       <c r="G56" s="64"/>
       <c r="H56" s="2"/>
     </row>
-    <row r="57" ht="15.6" spans="1:8">
+    <row r="57" ht="16.5" spans="1:8">
       <c r="A57" s="19">
         <v>7</v>
       </c>
@@ -10226,7 +10862,7 @@
       <c r="G57" s="64"/>
       <c r="H57" s="7"/>
     </row>
-    <row r="58" ht="15.6" spans="1:14">
+    <row r="58" ht="16.5" spans="1:14">
       <c r="A58" s="19">
         <v>8</v>
       </c>
@@ -10254,7 +10890,7 @@
       <c r="M58" s="2"/>
       <c r="N58" s="2"/>
     </row>
-    <row r="59" ht="15.6" spans="1:14">
+    <row r="59" ht="16.5" spans="1:14">
       <c r="A59" s="67"/>
       <c r="B59" s="68" t="s">
         <v>273</v>
@@ -10274,7 +10910,7 @@
       <c r="M59" s="2"/>
       <c r="N59" s="2"/>
     </row>
-    <row r="60" ht="15.6" spans="1:8">
+    <row r="60" ht="16.5" spans="1:8">
       <c r="A60" s="64"/>
       <c r="B60" s="68">
         <v>18</v>
@@ -10292,7 +10928,7 @@
       <c r="G60" s="64"/>
       <c r="H60" s="2"/>
     </row>
-    <row r="61" ht="15.6" spans="1:7">
+    <row r="61" ht="16.5" spans="1:7">
       <c r="A61" s="64"/>
       <c r="B61" s="68">
         <v>20</v>
@@ -10321,7 +10957,7 @@
     <row r="63" spans="3:3">
       <c r="C63" s="7"/>
     </row>
-    <row r="65" ht="15.6" spans="1:6">
+    <row r="65" ht="16.5" spans="1:6">
       <c r="A65" s="72" t="s">
         <v>317</v>
       </c>
@@ -10331,7 +10967,7 @@
       <c r="E65" s="72"/>
       <c r="F65" s="72"/>
     </row>
-    <row r="66" ht="15.6" spans="1:6">
+    <row r="66" ht="16.5" spans="1:6">
       <c r="A66" s="14" t="s">
         <v>252</v>
       </c>
@@ -10351,7 +10987,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="67" ht="31.2" spans="1:6">
+    <row r="67" ht="33" spans="1:6">
       <c r="A67" s="14">
         <v>1</v>
       </c>
@@ -10369,7 +11005,7 @@
       </c>
       <c r="F67" s="10"/>
     </row>
-    <row r="68" ht="31.2" spans="1:6">
+    <row r="68" ht="33" spans="1:6">
       <c r="A68" s="14">
         <v>2</v>
       </c>
@@ -10387,7 +11023,7 @@
       </c>
       <c r="F68" s="75"/>
     </row>
-    <row r="69" ht="31.2" spans="1:6">
+    <row r="69" ht="16.5" spans="1:6">
       <c r="A69" s="14">
         <v>3</v>
       </c>
@@ -10407,7 +11043,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="70" ht="31.2" spans="1:6">
+    <row r="70" ht="33" spans="1:6">
       <c r="A70" s="22">
         <v>4</v>
       </c>
@@ -10427,7 +11063,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="71" ht="31.2" spans="1:6">
+    <row r="71" ht="33" spans="1:6">
       <c r="A71" s="14">
         <v>5</v>
       </c>
@@ -10447,7 +11083,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="72" ht="31.2" spans="1:6">
+    <row r="72" ht="33" spans="1:6">
       <c r="A72" s="14">
         <v>6</v>
       </c>
@@ -10463,15 +11099,15 @@
       <c r="E72" s="75"/>
       <c r="F72" s="75"/>
     </row>
-    <row r="73" ht="15.6" spans="2:4">
+    <row r="73" ht="16.5" spans="2:4">
       <c r="B73" s="77"/>
       <c r="D73" s="51"/>
     </row>
-    <row r="74" ht="15.6" spans="2:4">
+    <row r="74" ht="16.5" spans="2:4">
       <c r="B74" s="77"/>
       <c r="D74" s="51"/>
     </row>
-    <row r="75" ht="46.8" spans="2:6">
+    <row r="75" ht="49.5" spans="2:6">
       <c r="B75" s="73" t="s">
         <v>337</v>
       </c>
@@ -10485,16 +11121,16 @@
         <v>340</v>
       </c>
     </row>
-    <row r="76" ht="15.6" spans="4:4">
+    <row r="76" ht="16.5" spans="4:4">
       <c r="D76" s="51"/>
     </row>
-    <row r="77" ht="15.6" spans="1:4">
+    <row r="77" ht="16.5" spans="1:4">
       <c r="A77" s="61"/>
       <c r="B77" s="51"/>
       <c r="C77" s="52"/>
       <c r="D77" s="51"/>
     </row>
-    <row r="78" ht="15.6" spans="1:4">
+    <row r="78" ht="16.5" spans="1:4">
       <c r="A78" s="61"/>
       <c r="B78" s="51"/>
       <c r="C78" s="52"/>
@@ -10522,10 +11158,10 @@
       <selection activeCell="B1" sqref="B$1:B$1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="9" style="4"/>
-    <col min="2" max="2" width="21.6296296296296" style="4" customWidth="1"/>
+    <col min="2" max="2" width="21.6333333333333" style="4" customWidth="1"/>
     <col min="3" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
@@ -10568,7 +11204,7 @@
       <c r="O3" s="49"/>
       <c r="P3" s="49"/>
     </row>
-    <row r="4" ht="16.5" customHeight="1" spans="1:16">
+    <row r="4" customHeight="1" spans="1:16">
       <c r="A4" s="44"/>
       <c r="B4" s="45" t="s">
         <v>345</v>
@@ -10829,27 +11465,27 @@
   <sheetPr/>
   <dimension ref="A1:K113"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F91" workbookViewId="0">
-      <selection activeCell="H86" sqref="H86"/>
+    <sheetView tabSelected="1" topLeftCell="F89" workbookViewId="0">
+      <selection activeCell="J101" sqref="J101"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="7.25" style="5" customWidth="1"/>
     <col min="2" max="2" width="20.25" style="5" customWidth="1"/>
-    <col min="3" max="3" width="8.12962962962963" style="5" customWidth="1"/>
-    <col min="4" max="4" width="21.6296296296296" style="5" customWidth="1"/>
+    <col min="3" max="3" width="8.13333333333333" style="5" customWidth="1"/>
+    <col min="4" max="4" width="21.6333333333333" style="5" customWidth="1"/>
     <col min="5" max="5" width="12.75" style="5" customWidth="1"/>
-    <col min="6" max="6" width="7.77777777777778" style="5" customWidth="1"/>
+    <col min="6" max="6" width="7.775" style="5" customWidth="1"/>
     <col min="7" max="7" width="46.3333333333333" style="6" customWidth="1"/>
-    <col min="8" max="8" width="38.7777777777778" style="6" customWidth="1"/>
+    <col min="8" max="8" width="38.775" style="6" customWidth="1"/>
     <col min="9" max="9" width="37.75" style="6" customWidth="1"/>
-    <col min="10" max="10" width="28.8796296296296" style="5" customWidth="1"/>
+    <col min="10" max="10" width="56.875" style="5" customWidth="1"/>
     <col min="11" max="11" width="28.25" style="5" customWidth="1"/>
     <col min="12" max="16384" width="9" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="31.2" spans="1:11">
+    <row r="1" s="1" customFormat="1" ht="33" spans="1:11">
       <c r="A1" s="8" t="s">
         <v>3</v>
       </c>
@@ -10882,7 +11518,7 @@
       </c>
       <c r="K1" s="28"/>
     </row>
-    <row r="2" s="1" customFormat="1" ht="15.6" spans="1:11">
+    <row r="2" s="1" customFormat="1" ht="16.5" spans="1:11">
       <c r="A2" s="8">
         <v>1</v>
       </c>
@@ -10911,7 +11547,7 @@
       <c r="J2" s="8"/>
       <c r="K2" s="28"/>
     </row>
-    <row r="3" s="1" customFormat="1" ht="15.6" spans="1:11">
+    <row r="3" s="1" customFormat="1" ht="16.5" spans="1:11">
       <c r="A3" s="8">
         <v>2</v>
       </c>
@@ -10940,7 +11576,7 @@
       <c r="J3" s="8"/>
       <c r="K3" s="28"/>
     </row>
-    <row r="4" ht="15.6" spans="1:10">
+    <row r="4" ht="16.5" spans="1:10">
       <c r="A4" s="8">
         <v>3</v>
       </c>
@@ -10970,7 +11606,7 @@
       </c>
       <c r="J4" s="29"/>
     </row>
-    <row r="5" ht="15.6" spans="1:10">
+    <row r="5" ht="16.5" spans="1:10">
       <c r="A5" s="8">
         <v>4</v>
       </c>
@@ -11002,7 +11638,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="6" ht="15.6" spans="1:10">
+    <row r="6" ht="16.5" spans="1:10">
       <c r="A6" s="8">
         <v>5</v>
       </c>
@@ -11032,7 +11668,7 @@
       </c>
       <c r="J6" s="30"/>
     </row>
-    <row r="7" ht="31.2" spans="1:10">
+    <row r="7" ht="33" spans="1:10">
       <c r="A7" s="8">
         <v>6</v>
       </c>
@@ -11062,7 +11698,7 @@
       </c>
       <c r="J7" s="29"/>
     </row>
-    <row r="8" ht="15.6" spans="1:10">
+    <row r="8" ht="16.5" spans="1:10">
       <c r="A8" s="8">
         <v>7</v>
       </c>
@@ -11092,7 +11728,7 @@
       </c>
       <c r="J8" s="29"/>
     </row>
-    <row r="9" ht="15.6" spans="1:10">
+    <row r="9" ht="16.5" spans="1:10">
       <c r="A9" s="8">
         <v>8</v>
       </c>
@@ -11122,7 +11758,7 @@
       </c>
       <c r="J9" s="29"/>
     </row>
-    <row r="10" s="2" customFormat="1" ht="31.2" spans="1:11">
+    <row r="10" s="2" customFormat="1" ht="33" spans="1:11">
       <c r="A10" s="8">
         <v>9</v>
       </c>
@@ -11153,7 +11789,7 @@
       <c r="J10" s="29"/>
       <c r="K10" s="31"/>
     </row>
-    <row r="11" ht="15.6" spans="1:10">
+    <row r="11" ht="16.5" spans="1:10">
       <c r="A11" s="8">
         <v>10</v>
       </c>
@@ -11185,7 +11821,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="12" ht="15.6" spans="1:10">
+    <row r="12" ht="16.5" spans="1:10">
       <c r="A12" s="8">
         <v>11</v>
       </c>
@@ -11215,7 +11851,7 @@
       </c>
       <c r="J12" s="29"/>
     </row>
-    <row r="13" ht="31.2" spans="1:10">
+    <row r="13" ht="33" spans="1:10">
       <c r="A13" s="8">
         <v>12</v>
       </c>
@@ -11245,7 +11881,7 @@
       </c>
       <c r="J13" s="29"/>
     </row>
-    <row r="14" ht="15.6" spans="1:10">
+    <row r="14" ht="16.5" spans="1:10">
       <c r="A14" s="8">
         <v>13</v>
       </c>
@@ -11275,7 +11911,7 @@
       </c>
       <c r="J14" s="29"/>
     </row>
-    <row r="15" ht="15.6" spans="1:10">
+    <row r="15" ht="16.5" spans="1:10">
       <c r="A15" s="8">
         <v>14</v>
       </c>
@@ -11305,7 +11941,7 @@
       </c>
       <c r="J15" s="29"/>
     </row>
-    <row r="16" ht="31.2" spans="1:10">
+    <row r="16" ht="33" spans="1:10">
       <c r="A16" s="8">
         <v>15</v>
       </c>
@@ -11335,7 +11971,7 @@
       </c>
       <c r="J16" s="29"/>
     </row>
-    <row r="17" ht="15.6" spans="1:10">
+    <row r="17" ht="16.5" spans="1:10">
       <c r="A17" s="8">
         <v>16</v>
       </c>
@@ -11365,7 +12001,7 @@
       </c>
       <c r="J17" s="29"/>
     </row>
-    <row r="18" ht="15.6" spans="1:10">
+    <row r="18" ht="16.5" spans="1:10">
       <c r="A18" s="8">
         <v>17</v>
       </c>
@@ -11395,7 +12031,7 @@
       </c>
       <c r="J18" s="29"/>
     </row>
-    <row r="19" ht="31.2" spans="1:10">
+    <row r="19" ht="33" spans="1:10">
       <c r="A19" s="8">
         <v>18</v>
       </c>
@@ -11425,7 +12061,7 @@
       </c>
       <c r="J19" s="29"/>
     </row>
-    <row r="20" ht="46.8" spans="1:10">
+    <row r="20" ht="49.5" spans="1:10">
       <c r="A20" s="8">
         <v>19</v>
       </c>
@@ -11455,7 +12091,7 @@
       </c>
       <c r="J20" s="29"/>
     </row>
-    <row r="21" ht="46.8" spans="1:10">
+    <row r="21" ht="33" spans="1:10">
       <c r="A21" s="8">
         <v>20</v>
       </c>
@@ -11485,7 +12121,7 @@
       </c>
       <c r="J21" s="29"/>
     </row>
-    <row r="22" ht="31.2" spans="1:10">
+    <row r="22" ht="33" spans="1:10">
       <c r="A22" s="8">
         <v>21</v>
       </c>
@@ -11515,7 +12151,7 @@
       </c>
       <c r="J22" s="29"/>
     </row>
-    <row r="23" ht="46.8" spans="1:10">
+    <row r="23" ht="33" spans="1:10">
       <c r="A23" s="8">
         <v>22</v>
       </c>
@@ -11635,7 +12271,7 @@
       </c>
       <c r="J26" s="29"/>
     </row>
-    <row r="27" ht="15.6" spans="1:10">
+    <row r="27" ht="16.5" spans="1:10">
       <c r="A27" s="8">
         <v>26</v>
       </c>
@@ -11665,7 +12301,7 @@
       </c>
       <c r="J27" s="29"/>
     </row>
-    <row r="28" ht="31.2" spans="1:10">
+    <row r="28" ht="33" spans="1:10">
       <c r="A28" s="8">
         <v>27</v>
       </c>
@@ -11695,7 +12331,7 @@
       </c>
       <c r="J28" s="29"/>
     </row>
-    <row r="29" s="2" customFormat="1" ht="15.6" spans="1:11">
+    <row r="29" s="2" customFormat="1" ht="16.5" spans="1:11">
       <c r="A29" s="8">
         <v>28</v>
       </c>
@@ -11726,7 +12362,7 @@
       <c r="J29" s="29"/>
       <c r="K29" s="32"/>
     </row>
-    <row r="30" s="3" customFormat="1" ht="31.2" spans="1:11">
+    <row r="30" s="3" customFormat="1" ht="33" spans="1:11">
       <c r="A30" s="8">
         <v>29</v>
       </c>
@@ -11757,7 +12393,7 @@
       <c r="J30" s="22"/>
       <c r="K30" s="33"/>
     </row>
-    <row r="31" ht="15.6" spans="1:10">
+    <row r="31" ht="16.5" spans="1:10">
       <c r="A31" s="8">
         <v>30</v>
       </c>
@@ -11787,7 +12423,7 @@
       </c>
       <c r="J31" s="29"/>
     </row>
-    <row r="32" ht="31.2" spans="1:10">
+    <row r="32" ht="33" spans="1:10">
       <c r="A32" s="8">
         <v>31</v>
       </c>
@@ -11817,7 +12453,7 @@
       </c>
       <c r="J32" s="29"/>
     </row>
-    <row r="33" ht="15.6" spans="1:10">
+    <row r="33" ht="16.5" spans="1:10">
       <c r="A33" s="8"/>
       <c r="B33" s="11"/>
       <c r="C33" s="11"/>
@@ -11829,7 +12465,7 @@
       <c r="I33" s="10"/>
       <c r="J33" s="29"/>
     </row>
-    <row r="34" ht="15.6" spans="1:10">
+    <row r="34" ht="16.5" spans="1:10">
       <c r="A34" s="8"/>
       <c r="B34" s="11"/>
       <c r="C34" s="11"/>
@@ -11841,7 +12477,7 @@
       <c r="I34" s="10"/>
       <c r="J34" s="29"/>
     </row>
-    <row r="35" ht="15.6" spans="1:10">
+    <row r="35" ht="16.5" spans="1:10">
       <c r="A35" s="8"/>
       <c r="B35" s="11"/>
       <c r="C35" s="11"/>
@@ -11853,7 +12489,7 @@
       <c r="I35" s="10"/>
       <c r="J35" s="29"/>
     </row>
-    <row r="36" ht="15.6" spans="1:10">
+    <row r="36" ht="16.5" spans="1:10">
       <c r="A36" s="8">
         <v>1</v>
       </c>
@@ -11883,7 +12519,7 @@
       </c>
       <c r="J36" s="22"/>
     </row>
-    <row r="37" ht="15.6" spans="1:10">
+    <row r="37" ht="16.5" spans="1:10">
       <c r="A37" s="8">
         <v>2</v>
       </c>
@@ -11913,7 +12549,7 @@
       </c>
       <c r="J37" s="29"/>
     </row>
-    <row r="38" ht="15.6" spans="1:10">
+    <row r="38" ht="16.5" spans="1:10">
       <c r="A38" s="8">
         <v>3</v>
       </c>
@@ -11943,7 +12579,7 @@
       </c>
       <c r="J38" s="29"/>
     </row>
-    <row r="39" ht="15.6" spans="1:10">
+    <row r="39" ht="16.5" spans="1:10">
       <c r="A39" s="8">
         <v>4</v>
       </c>
@@ -11973,7 +12609,7 @@
       </c>
       <c r="J39" s="29"/>
     </row>
-    <row r="40" ht="15.6" spans="1:10">
+    <row r="40" ht="16.5" spans="1:10">
       <c r="A40" s="8">
         <v>5</v>
       </c>
@@ -12003,7 +12639,7 @@
       </c>
       <c r="J40" s="29"/>
     </row>
-    <row r="41" ht="15.6" spans="1:10">
+    <row r="41" ht="16.5" spans="1:10">
       <c r="A41" s="8">
         <v>6</v>
       </c>
@@ -12033,7 +12669,7 @@
       </c>
       <c r="J41" s="29"/>
     </row>
-    <row r="42" ht="15.6" spans="1:10">
+    <row r="42" ht="16.5" spans="1:10">
       <c r="A42" s="8">
         <v>7</v>
       </c>
@@ -12065,7 +12701,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="43" ht="15.6" spans="1:10">
+    <row r="43" ht="16.5" spans="1:10">
       <c r="A43" s="8">
         <v>8</v>
       </c>
@@ -12095,7 +12731,7 @@
       </c>
       <c r="J43" s="29"/>
     </row>
-    <row r="44" ht="15.6" spans="1:10">
+    <row r="44" ht="16.5" spans="1:10">
       <c r="A44" s="8">
         <v>9</v>
       </c>
@@ -12125,7 +12761,7 @@
       </c>
       <c r="J44" s="29"/>
     </row>
-    <row r="45" ht="15.6" spans="1:10">
+    <row r="45" ht="16.5" spans="1:10">
       <c r="A45" s="8">
         <v>10</v>
       </c>
@@ -12155,7 +12791,7 @@
       </c>
       <c r="J45" s="29"/>
     </row>
-    <row r="46" ht="15.6" spans="1:10">
+    <row r="46" ht="16.5" spans="1:10">
       <c r="A46" s="8">
         <v>11</v>
       </c>
@@ -12185,7 +12821,7 @@
       </c>
       <c r="J46" s="29"/>
     </row>
-    <row r="47" ht="15.6" spans="1:10">
+    <row r="47" ht="16.5" spans="1:10">
       <c r="A47" s="8">
         <v>12</v>
       </c>
@@ -12215,7 +12851,7 @@
       </c>
       <c r="J47" s="29"/>
     </row>
-    <row r="48" ht="15.6" spans="1:10">
+    <row r="48" ht="16.5" spans="1:10">
       <c r="A48" s="8">
         <v>13</v>
       </c>
@@ -12245,7 +12881,7 @@
       </c>
       <c r="J48" s="29"/>
     </row>
-    <row r="49" ht="15.6" spans="1:10">
+    <row r="49" ht="16.5" spans="1:10">
       <c r="A49" s="8">
         <v>14</v>
       </c>
@@ -12265,7 +12901,7 @@
       </c>
       <c r="J49" s="29"/>
     </row>
-    <row r="50" ht="15.6" spans="1:10">
+    <row r="50" ht="16.5" spans="1:10">
       <c r="A50" s="8">
         <v>15</v>
       </c>
@@ -12295,7 +12931,7 @@
       </c>
       <c r="J50" s="29"/>
     </row>
-    <row r="51" ht="15.6" spans="1:10">
+    <row r="51" ht="16.5" spans="1:10">
       <c r="A51" s="8">
         <v>16</v>
       </c>
@@ -12325,7 +12961,7 @@
       </c>
       <c r="J51" s="29"/>
     </row>
-    <row r="52" ht="15.6" spans="1:10">
+    <row r="52" ht="16.5" spans="1:10">
       <c r="A52" s="8">
         <v>17</v>
       </c>
@@ -12355,7 +12991,7 @@
       </c>
       <c r="J52" s="29"/>
     </row>
-    <row r="53" ht="15.6" spans="1:10">
+    <row r="53" ht="16.5" spans="1:10">
       <c r="A53" s="8">
         <v>18</v>
       </c>
@@ -12369,7 +13005,7 @@
       <c r="I53" s="10"/>
       <c r="J53" s="29"/>
     </row>
-    <row r="54" ht="15.6" spans="1:10">
+    <row r="54" ht="16.5" spans="1:10">
       <c r="A54" s="8"/>
       <c r="B54" s="11"/>
       <c r="C54" s="11"/>
@@ -12381,7 +13017,7 @@
       <c r="I54" s="10"/>
       <c r="J54" s="29"/>
     </row>
-    <row r="55" ht="15.6" spans="1:10">
+    <row r="55" ht="16.5" spans="1:10">
       <c r="A55" s="8"/>
       <c r="B55" s="11"/>
       <c r="C55" s="11"/>
@@ -12393,7 +13029,7 @@
       <c r="I55" s="10"/>
       <c r="J55" s="29"/>
     </row>
-    <row r="56" ht="15.6" spans="1:10">
+    <row r="56" ht="16.5" spans="1:10">
       <c r="A56" s="8">
         <v>1</v>
       </c>
@@ -12423,7 +13059,7 @@
       </c>
       <c r="J56" s="29"/>
     </row>
-    <row r="57" ht="15.6" spans="1:10">
+    <row r="57" ht="16.5" spans="1:10">
       <c r="A57" s="8">
         <v>2</v>
       </c>
@@ -12455,7 +13091,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="58" ht="15.6" spans="1:10">
+    <row r="58" ht="16.5" spans="1:10">
       <c r="A58" s="8">
         <v>3</v>
       </c>
@@ -12487,7 +13123,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="59" ht="15.6" spans="1:10">
+    <row r="59" ht="16.5" spans="1:10">
       <c r="A59" s="8">
         <v>4</v>
       </c>
@@ -12517,7 +13153,7 @@
       </c>
       <c r="J59" s="22"/>
     </row>
-    <row r="60" ht="15.6" spans="1:10">
+    <row r="60" ht="16.5" spans="1:10">
       <c r="A60" s="8">
         <v>5</v>
       </c>
@@ -12547,7 +13183,7 @@
       </c>
       <c r="J60" s="22"/>
     </row>
-    <row r="61" s="4" customFormat="1" ht="15.6" spans="1:11">
+    <row r="61" s="4" customFormat="1" ht="16.5" spans="1:11">
       <c r="A61" s="8">
         <v>6</v>
       </c>
@@ -12580,7 +13216,7 @@
       </c>
       <c r="K61" s="36"/>
     </row>
-    <row r="62" ht="15.6" spans="1:10">
+    <row r="62" ht="16.5" spans="1:10">
       <c r="A62" s="8">
         <v>7</v>
       </c>
@@ -12610,7 +13246,7 @@
       </c>
       <c r="J62" s="29"/>
     </row>
-    <row r="63" ht="15.6" spans="1:10">
+    <row r="63" ht="16.5" spans="1:10">
       <c r="A63" s="8">
         <v>8</v>
       </c>
@@ -12640,7 +13276,7 @@
       </c>
       <c r="J63" s="29"/>
     </row>
-    <row r="64" ht="15.6" spans="1:10">
+    <row r="64" ht="16.5" spans="1:10">
       <c r="A64" s="8">
         <v>9</v>
       </c>
@@ -12670,7 +13306,7 @@
       </c>
       <c r="J64" s="29"/>
     </row>
-    <row r="65" ht="15.6" spans="1:10">
+    <row r="65" ht="16.5" spans="1:10">
       <c r="A65" s="8">
         <v>10</v>
       </c>
@@ -12700,7 +13336,7 @@
       </c>
       <c r="J65" s="29"/>
     </row>
-    <row r="66" ht="15.6" spans="1:10">
+    <row r="66" ht="16.5" spans="1:10">
       <c r="A66" s="8">
         <v>11</v>
       </c>
@@ -12732,7 +13368,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="67" ht="15.6" spans="1:10">
+    <row r="67" ht="16.5" spans="1:10">
       <c r="A67" s="8">
         <v>12</v>
       </c>
@@ -12762,7 +13398,7 @@
       </c>
       <c r="J67" s="29"/>
     </row>
-    <row r="68" ht="15.6" spans="1:10">
+    <row r="68" ht="16.5" spans="1:10">
       <c r="A68" s="8">
         <v>13</v>
       </c>
@@ -12794,7 +13430,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="69" ht="15.6" spans="1:10">
+    <row r="69" ht="16.5" spans="1:10">
       <c r="A69" s="8">
         <v>14</v>
       </c>
@@ -12824,7 +13460,7 @@
       </c>
       <c r="J69" s="29"/>
     </row>
-    <row r="70" ht="15.6" spans="1:10">
+    <row r="70" ht="16.5" spans="1:10">
       <c r="A70" s="8">
         <v>15</v>
       </c>
@@ -12856,7 +13492,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="71" ht="15.6" spans="1:11">
+    <row r="71" ht="16.5" spans="1:11">
       <c r="A71" s="8">
         <v>16</v>
       </c>
@@ -12887,7 +13523,7 @@
       <c r="J71" s="39"/>
       <c r="K71" s="40"/>
     </row>
-    <row r="72" ht="15.6" spans="1:11">
+    <row r="72" ht="16.5" spans="1:11">
       <c r="A72" s="8">
         <v>17</v>
       </c>
@@ -12920,7 +13556,7 @@
       </c>
       <c r="K72" s="40"/>
     </row>
-    <row r="73" ht="15.6" spans="1:11">
+    <row r="73" ht="16.5" spans="1:11">
       <c r="A73" s="8">
         <v>18</v>
       </c>
@@ -12951,7 +13587,7 @@
       <c r="J73" s="29"/>
       <c r="K73" s="40"/>
     </row>
-    <row r="74" ht="15.6" spans="1:10">
+    <row r="74" ht="16.5" spans="1:10">
       <c r="A74" s="8">
         <v>19</v>
       </c>
@@ -12981,7 +13617,7 @@
       </c>
       <c r="J74" s="42"/>
     </row>
-    <row r="75" ht="15.6" spans="1:10">
+    <row r="75" ht="16.5" spans="1:10">
       <c r="A75" s="8">
         <v>20</v>
       </c>
@@ -13011,7 +13647,7 @@
       </c>
       <c r="J75" s="29"/>
     </row>
-    <row r="76" ht="15.6" spans="1:10">
+    <row r="76" ht="16.5" spans="1:10">
       <c r="A76" s="8">
         <v>21</v>
       </c>
@@ -13041,7 +13677,7 @@
       </c>
       <c r="J76" s="29"/>
     </row>
-    <row r="77" ht="15.6" spans="1:10">
+    <row r="77" ht="16.5" spans="1:10">
       <c r="A77" s="8">
         <v>22</v>
       </c>
@@ -13071,7 +13707,7 @@
       </c>
       <c r="J77" s="29"/>
     </row>
-    <row r="78" ht="15.6" spans="1:10">
+    <row r="78" ht="16.5" spans="1:10">
       <c r="A78" s="8">
         <v>23</v>
       </c>
@@ -13101,7 +13737,7 @@
       </c>
       <c r="J78" s="29"/>
     </row>
-    <row r="79" ht="31.2" spans="1:10">
+    <row r="79" ht="33" spans="1:10">
       <c r="A79" s="8">
         <v>24</v>
       </c>
@@ -13131,7 +13767,7 @@
       </c>
       <c r="J79" s="29"/>
     </row>
-    <row r="80" ht="15.6" spans="1:10">
+    <row r="80" ht="16.5" spans="1:10">
       <c r="A80" s="8">
         <v>25</v>
       </c>
@@ -13161,7 +13797,7 @@
       </c>
       <c r="J80" s="29"/>
     </row>
-    <row r="81" ht="15.6" spans="1:10">
+    <row r="81" ht="16.5" spans="1:10">
       <c r="A81" s="8">
         <v>26</v>
       </c>
@@ -13191,7 +13827,7 @@
       </c>
       <c r="J81" s="29"/>
     </row>
-    <row r="82" ht="15.6" spans="1:10">
+    <row r="82" ht="16.5" spans="1:10">
       <c r="A82" s="8">
         <v>27</v>
       </c>
@@ -13221,7 +13857,7 @@
       </c>
       <c r="J82" s="29"/>
     </row>
-    <row r="83" ht="15.6" spans="1:10">
+    <row r="83" ht="16.5" spans="1:10">
       <c r="A83" s="8">
         <v>28</v>
       </c>
@@ -13251,7 +13887,7 @@
       </c>
       <c r="J83" s="29"/>
     </row>
-    <row r="84" ht="15.6" spans="1:10">
+    <row r="84" ht="16.5" spans="1:10">
       <c r="A84" s="8">
         <v>29</v>
       </c>
@@ -13269,7 +13905,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="85" ht="15.6" spans="1:10">
+    <row r="85" ht="16.5" spans="1:10">
       <c r="A85" s="8">
         <v>30</v>
       </c>
@@ -13329,7 +13965,7 @@
       </c>
       <c r="J86" s="38"/>
     </row>
-    <row r="87" ht="15.6" spans="1:10">
+    <row r="87" ht="16.5" spans="1:10">
       <c r="A87" s="8">
         <v>32</v>
       </c>
@@ -13359,7 +13995,7 @@
       </c>
       <c r="J87" s="29"/>
     </row>
-    <row r="88" ht="15.6" spans="1:10">
+    <row r="88" ht="16.5" spans="1:10">
       <c r="A88" s="8"/>
       <c r="B88" s="11"/>
       <c r="C88" s="11"/>
@@ -13371,7 +14007,7 @@
       <c r="I88" s="10"/>
       <c r="J88" s="29"/>
     </row>
-    <row r="89" ht="15.6" spans="1:10">
+    <row r="89" ht="16.5" spans="1:10">
       <c r="A89" s="8"/>
       <c r="B89" s="11"/>
       <c r="C89" s="11"/>
@@ -13383,7 +14019,7 @@
       <c r="I89" s="10"/>
       <c r="J89" s="29"/>
     </row>
-    <row r="90" ht="15.6" spans="1:10">
+    <row r="90" ht="16.5" spans="1:10">
       <c r="A90" s="8"/>
       <c r="B90" s="11"/>
       <c r="C90" s="11"/>
@@ -13421,9 +14057,11 @@
       <c r="I91" s="10" t="s">
         <v>756</v>
       </c>
-      <c r="J91" s="22"/>
-    </row>
-    <row r="92" ht="15.6" spans="1:10">
+      <c r="J91" s="43" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="92" ht="16.5" spans="1:10">
       <c r="A92" s="14">
         <v>2</v>
       </c>
@@ -13441,17 +14079,19 @@
         <v>215</v>
       </c>
       <c r="G92" s="10" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="H92" s="10" t="s">
         <v>755</v>
       </c>
       <c r="I92" s="10" t="s">
-        <v>758</v>
-      </c>
-      <c r="J92" s="29"/>
-    </row>
-    <row r="93" ht="15" customHeight="1" spans="1:10">
+        <v>759</v>
+      </c>
+      <c r="J92" s="43" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="93" ht="17" customHeight="1" spans="1:10">
       <c r="A93" s="14">
         <v>3</v>
       </c>
@@ -13469,17 +14109,19 @@
         <v>215</v>
       </c>
       <c r="G93" s="10" t="s">
-        <v>759</v>
+        <v>761</v>
       </c>
       <c r="H93" s="10" t="s">
         <v>755</v>
       </c>
       <c r="I93" s="10" t="s">
-        <v>760</v>
-      </c>
-      <c r="J93" s="29"/>
-    </row>
-    <row r="94" ht="15.6" spans="1:10">
+        <v>762</v>
+      </c>
+      <c r="J93" s="43" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="94" ht="16.5" spans="1:10">
       <c r="A94" s="14">
         <v>4</v>
       </c>
@@ -13497,15 +14139,17 @@
         <v>215</v>
       </c>
       <c r="G94" s="10" t="s">
-        <v>761</v>
+        <v>764</v>
       </c>
       <c r="H94" s="10" t="s">
         <v>755</v>
       </c>
       <c r="I94" s="10" t="s">
-        <v>762</v>
-      </c>
-      <c r="J94" s="29"/>
+        <v>765</v>
+      </c>
+      <c r="J94" s="43" t="s">
+        <v>766</v>
+      </c>
     </row>
     <row r="95" ht="21" customHeight="1" spans="1:10">
       <c r="A95" s="14">
@@ -13525,17 +14169,19 @@
         <v>215</v>
       </c>
       <c r="G95" s="10" t="s">
-        <v>763</v>
+        <v>767</v>
       </c>
       <c r="H95" s="10" t="s">
         <v>755</v>
       </c>
       <c r="I95" s="10" t="s">
-        <v>764</v>
-      </c>
-      <c r="J95" s="29"/>
-    </row>
-    <row r="96" ht="15.6" spans="1:10">
+        <v>768</v>
+      </c>
+      <c r="J95" s="43" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="96" ht="16.5" spans="1:10">
       <c r="A96" s="14">
         <v>6</v>
       </c>
@@ -13553,15 +14199,17 @@
         <v>215</v>
       </c>
       <c r="G96" s="10" t="s">
-        <v>765</v>
+        <v>770</v>
       </c>
       <c r="H96" s="10" t="s">
         <v>755</v>
       </c>
       <c r="I96" s="10" t="s">
-        <v>766</v>
-      </c>
-      <c r="J96" s="29"/>
+        <v>771</v>
+      </c>
+      <c r="J96" s="43" t="s">
+        <v>772</v>
+      </c>
     </row>
     <row r="97" ht="15" customHeight="1" spans="1:10">
       <c r="A97" s="14">
@@ -13581,17 +14229,19 @@
         <v>215</v>
       </c>
       <c r="G97" s="10" t="s">
-        <v>767</v>
+        <v>773</v>
       </c>
       <c r="H97" s="10" t="s">
         <v>755</v>
       </c>
       <c r="I97" s="10" t="s">
-        <v>768</v>
-      </c>
-      <c r="J97" s="29"/>
-    </row>
-    <row r="98" ht="15.6" spans="1:10">
+        <v>774</v>
+      </c>
+      <c r="J97" s="43" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="98" ht="16.5" spans="1:10">
       <c r="A98" s="14">
         <v>8</v>
       </c>
@@ -13609,15 +14259,17 @@
         <v>215</v>
       </c>
       <c r="G98" s="10" t="s">
-        <v>769</v>
+        <v>776</v>
       </c>
       <c r="H98" s="10" t="s">
         <v>755</v>
       </c>
       <c r="I98" s="10" t="s">
-        <v>770</v>
-      </c>
-      <c r="J98" s="43"/>
+        <v>777</v>
+      </c>
+      <c r="J98" s="43" t="s">
+        <v>778</v>
+      </c>
     </row>
     <row r="99" ht="18" customHeight="1" spans="1:10">
       <c r="A99" s="14">
@@ -13637,17 +14289,19 @@
         <v>215</v>
       </c>
       <c r="G99" s="10" t="s">
-        <v>771</v>
+        <v>779</v>
       </c>
       <c r="H99" s="10" t="s">
         <v>755</v>
       </c>
       <c r="I99" s="10" t="s">
-        <v>772</v>
-      </c>
-      <c r="J99" s="43"/>
-    </row>
-    <row r="100" ht="15.6" spans="1:10">
+        <v>780</v>
+      </c>
+      <c r="J99" s="43" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="100" ht="16.5" spans="1:10">
       <c r="A100" s="14">
         <v>10</v>
       </c>
@@ -13665,15 +14319,17 @@
         <v>215</v>
       </c>
       <c r="G100" s="10" t="s">
-        <v>773</v>
+        <v>782</v>
       </c>
       <c r="H100" s="10" t="s">
         <v>755</v>
       </c>
       <c r="I100" s="10" t="s">
-        <v>774</v>
-      </c>
-      <c r="J100" s="22"/>
+        <v>783</v>
+      </c>
+      <c r="J100" s="43" t="s">
+        <v>784</v>
+      </c>
     </row>
     <row r="101" ht="23" customHeight="1" spans="1:10">
       <c r="A101" s="14">
@@ -13693,17 +14349,17 @@
         <v>215</v>
       </c>
       <c r="G101" s="10" t="s">
-        <v>775</v>
+        <v>785</v>
       </c>
       <c r="H101" s="10" t="s">
         <v>755</v>
       </c>
       <c r="I101" s="10" t="s">
-        <v>776</v>
+        <v>786</v>
       </c>
       <c r="J101" s="22"/>
     </row>
-    <row r="102" ht="15.6" spans="1:10">
+    <row r="102" ht="16.5" spans="1:10">
       <c r="A102" s="14">
         <v>12</v>
       </c>
@@ -13721,13 +14377,13 @@
         <v>215</v>
       </c>
       <c r="G102" s="10" t="s">
-        <v>777</v>
+        <v>787</v>
       </c>
       <c r="H102" s="10" t="s">
         <v>755</v>
       </c>
       <c r="I102" s="10" t="s">
-        <v>778</v>
+        <v>788</v>
       </c>
       <c r="J102" s="22"/>
     </row>
@@ -13749,13 +14405,13 @@
         <v>215</v>
       </c>
       <c r="G103" s="10" t="s">
-        <v>779</v>
+        <v>789</v>
       </c>
       <c r="H103" s="10" t="s">
-        <v>780</v>
+        <v>790</v>
       </c>
       <c r="I103" s="10" t="s">
-        <v>781</v>
+        <v>791</v>
       </c>
       <c r="J103" s="22"/>
     </row>
@@ -13777,17 +14433,17 @@
         <v>215</v>
       </c>
       <c r="G104" s="10" t="s">
-        <v>782</v>
+        <v>792</v>
       </c>
       <c r="H104" s="10" t="s">
-        <v>783</v>
+        <v>793</v>
       </c>
       <c r="I104" s="10" t="s">
-        <v>784</v>
+        <v>794</v>
       </c>
       <c r="J104" s="22"/>
     </row>
-    <row r="105" ht="15.6" spans="1:10">
+    <row r="105" ht="16.5" spans="1:10">
       <c r="A105" s="14">
         <v>15</v>
       </c>
@@ -13805,10 +14461,10 @@
         <v>215</v>
       </c>
       <c r="G105" s="10" t="s">
-        <v>785</v>
+        <v>795</v>
       </c>
       <c r="H105" s="10" t="s">
-        <v>783</v>
+        <v>793</v>
       </c>
       <c r="I105" s="10" t="s">
         <v>227</v>
@@ -13833,17 +14489,17 @@
         <v>215</v>
       </c>
       <c r="G106" s="10" t="s">
-        <v>786</v>
+        <v>796</v>
       </c>
       <c r="H106" s="10" t="s">
-        <v>783</v>
+        <v>793</v>
       </c>
       <c r="I106" s="10" t="s">
-        <v>787</v>
+        <v>797</v>
       </c>
       <c r="J106" s="22"/>
     </row>
-    <row r="107" ht="15.6" spans="1:10">
+    <row r="107" ht="16.5" spans="1:10">
       <c r="A107" s="14">
         <v>17</v>
       </c>
@@ -13861,17 +14517,17 @@
         <v>215</v>
       </c>
       <c r="G107" s="10" t="s">
-        <v>788</v>
+        <v>798</v>
       </c>
       <c r="H107" s="10" t="s">
-        <v>783</v>
+        <v>793</v>
       </c>
       <c r="I107" s="10" t="s">
-        <v>789</v>
+        <v>799</v>
       </c>
       <c r="J107" s="22"/>
     </row>
-    <row r="108" ht="15.6" spans="1:10">
+    <row r="108" ht="16.5" spans="1:10">
       <c r="A108" s="14">
         <v>18</v>
       </c>
@@ -13889,13 +14545,13 @@
         <v>215</v>
       </c>
       <c r="G108" s="10" t="s">
-        <v>790</v>
+        <v>800</v>
       </c>
       <c r="H108" s="10" t="s">
-        <v>783</v>
+        <v>793</v>
       </c>
       <c r="I108" s="10" t="s">
-        <v>791</v>
+        <v>801</v>
       </c>
       <c r="J108" s="22"/>
     </row>
@@ -13917,17 +14573,19 @@
         <v>215</v>
       </c>
       <c r="G109" s="10" t="s">
-        <v>792</v>
+        <v>802</v>
       </c>
       <c r="H109" s="10" t="s">
-        <v>755</v>
+        <v>803</v>
       </c>
       <c r="I109" s="10" t="s">
-        <v>793</v>
-      </c>
-      <c r="J109" s="22"/>
-    </row>
-    <row r="110" ht="15.6" spans="1:10">
+        <v>804</v>
+      </c>
+      <c r="J109" s="43" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="110" ht="16.5" spans="1:10">
       <c r="A110" s="14">
         <v>20</v>
       </c>
@@ -13945,15 +14603,17 @@
         <v>215</v>
       </c>
       <c r="G110" s="10" t="s">
-        <v>794</v>
+        <v>806</v>
       </c>
       <c r="H110" s="10" t="s">
-        <v>783</v>
+        <v>793</v>
       </c>
       <c r="I110" s="10" t="s">
-        <v>795</v>
-      </c>
-      <c r="J110" s="22"/>
+        <v>807</v>
+      </c>
+      <c r="J110" s="43" t="s">
+        <v>805</v>
+      </c>
     </row>
     <row r="111" ht="25" customHeight="1" spans="1:10">
       <c r="A111" s="14">
@@ -13973,17 +14633,19 @@
         <v>215</v>
       </c>
       <c r="G111" s="10" t="s">
-        <v>796</v>
+        <v>808</v>
       </c>
       <c r="H111" s="10" t="s">
-        <v>755</v>
+        <v>803</v>
       </c>
       <c r="I111" s="10" t="s">
-        <v>797</v>
-      </c>
-      <c r="J111" s="22"/>
-    </row>
-    <row r="112" ht="15.6" spans="1:10">
+        <v>809</v>
+      </c>
+      <c r="J111" s="43" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="112" ht="16.5" spans="1:10">
       <c r="A112" s="14">
         <v>22</v>
       </c>
@@ -14003,7 +14665,7 @@
       <c r="I112" s="10"/>
       <c r="J112" s="22"/>
     </row>
-    <row r="113" ht="15.6" spans="1:10">
+    <row r="113" ht="16.5" spans="1:10">
       <c r="A113" s="14">
         <v>23</v>
       </c>
